--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93B6BF8-2CD9-43BA-B797-4F5BE10041A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF3CC45-3AA8-401D-AAD4-B6C4FDC5C0D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>The objective of this project is to investigate the relationship between deformation of a foldable antenna and effective wavelength. Understanding this association could allow for remote sensing of curvature in flexible robots. Alternatively, the correlation between deformation and effective wavelength could be leveraged to create tunable foldable antennas using closed-loop control techniques.</t>
   </si>
@@ -268,7 +268,19 @@
     <t>efri</t>
   </si>
   <si>
-    <t>…</t>
+    <t>This  work  is  supported  by  Office  of  Naval  Research  Award  N00014-17-1-2117</t>
+  </si>
+  <si>
+    <t>SCRAM Platform 1</t>
+  </si>
+  <si>
+    <t>coming soon…</t>
+  </si>
+  <si>
+    <t>This work is supported by &lt;a href="https://www.nsf.gov/awardsearch/showAward?AWD_ID=1935324"&gt;NSF Award #1935324&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>This work is supported by &lt;a href="https://www.nsf.gov/awardsearch/showAward?AWD_ID=1841574"&gt;NSF Award #1841574&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -603,7 +615,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,6 +751,9 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>71</v>
       </c>
@@ -756,6 +771,9 @@
       <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>72</v>
       </c>
@@ -927,13 +945,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>75</v>

--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7065B94B-0C46-4140-8F35-C69AB8E4DCDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DBF109-73E5-4956-AE84-7FF4BC9E92DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="24624" windowHeight="15768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,21 +667,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="99.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="36.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="99.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -707,7 +707,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -721,7 +721,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -735,7 +735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -752,7 +752,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -772,7 +772,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -789,7 +789,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -812,7 +812,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -835,7 +835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -858,7 +858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -881,7 +881,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -898,7 +898,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,13 +932,13 @@
         <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -955,7 +955,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -975,7 +975,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -995,7 +995,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="138" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>77</v>
       </c>

--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DBF109-73E5-4956-AE84-7FF4BC9E92DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC29A8B4-9D1D-42BB-923B-4AAF59C3FD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="24624" windowHeight="15768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="24624" windowHeight="15768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
   <si>
     <t>The objective of this project is to investigate the relationship between deformation of a foldable antenna and effective wavelength. Understanding this association could allow for remote sensing of curvature in flexible robots. Alternatively, the correlation between deformation and effective wavelength could be leveraged to create tunable foldable antennas using closed-loop control techniques.</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>Funding for this project was provided in part by SRP.</t>
+  </si>
+  <si>
+    <t>/assets/images/research/cutter.png</t>
   </si>
 </sst>
 </file>
@@ -667,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -908,6 +911,9 @@
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>85</v>
       </c>

--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC29A8B4-9D1D-42BB-923B-4AAF59C3FD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263EA813-A8E6-4B64-B441-13BF422493CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="24624" windowHeight="15768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="33048" windowHeight="21648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>The objective of this project is to investigate the relationship between deformation of a foldable antenna and effective wavelength. Understanding this association could allow for remote sensing of curvature in flexible robots. Alternatively, the correlation between deformation and effective wavelength could be leveraged to create tunable foldable antennas using closed-loop control techniques.</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Digging Robot</t>
   </si>
   <si>
     <t>We are working to create a framework for design, rapid prototyping and control of robust, energy-efficient, autonomous soft arms with octopus-inspired distributed neuromuscular sensing and actuation. The arms will be capable of continuous deformation through the use of hydrogel "muscles" and distributed sensing through the use of embedded silver "neuron" interconnections. Such a unique octopus-inspired design forms a built-in local "sensing-actuation" feedback loop to achieve adaptive reconfiguration in response to the local environment. Such local adaptation will enable the robot to perform high-level tasks such as locomotion and reversible adhesion without coordination from a central controller in a highly accurate, rapid, and energy-efficient way. This study will also produce fundamental principles and theory for the modeling and control of soft robots in a way which leverages their unique capabilities and is inspired by how cephalopod appendages interact with their environment.</t>
@@ -321,6 +318,12 @@
   </si>
   <si>
     <t>/assets/images/research/cutter.png</t>
+  </si>
+  <si>
+    <t>What's inside the ground leaves us a mystery, and we are trying to use the self-boring robot nodes to collect signals underground. Currently, we are focusing on the soft material-granular media contacting behavior, adding material compliance into granular media RFT model. With a sand-burrowing robot platform built, we are validating the model, adding sensors, and implementing control. As a final goal, a series of self-burrowing digging robots will be created, enabling us to sense underground environments with minimal human intervention.</t>
+  </si>
+  <si>
+    <t>Signals in the Soil</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -686,33 +689,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -721,12 +724,12 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -735,158 +738,158 @@
         <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -895,33 +898,33 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
@@ -935,135 +938,135 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="138" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -1072,24 +1075,24 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263EA813-A8E6-4B64-B441-13BF422493CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C21D9B5-DBBD-4962-A529-629D2BB0C697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="33048" windowHeight="21648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>The objective of this project is to investigate the relationship between deformation of a foldable antenna and effective wavelength. Understanding this association could allow for remote sensing of curvature in flexible robots. Alternatively, the correlation between deformation and effective wavelength could be leveraged to create tunable foldable antennas using closed-loop control techniques.</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Cole Brauer</t>
   </si>
   <si>
-    <t>This project is researching methods of automating the planning of multi-material manufacturing processes.  This research will be used to inform the development of a software planning tool that would aid in the development of low-cost educational robots.  The focus of this project is on processes that are widely available in educational institutions such as 3D printing and laser cutting.</t>
-  </si>
-  <si>
     <t>Force control offers numerous benefits to robots over other control schemes such as more natural movements and increased sensitivity to the surrounding environment, but it is typically only available to high-end robots. This research aims to develop a modular force control solution for low-cost robots. The solution is designed to be easy to incorporate into future laminate robots, allowing the designer to add force control capabilities, while placing minimal constraints on the design.</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
   </si>
   <si>
     <t>biped</t>
-  </si>
-  <si>
-    <t>misc</t>
   </si>
   <si>
     <t>onr</t>
@@ -324,6 +318,13 @@
   </si>
   <si>
     <t>Signals in the Soil</t>
+  </si>
+  <si>
+    <t>This project seeks to provide methods and set of tools for processing, modifying, and generating 3D models that use multiple materials and fabrication processes. Areas of research include planning of fabrication steps, automatic part modification, optimization of component properties, and generation of the files and fixtures needed to produce multi-material parts. Implementation of these algorithms is done in Python using a voxel-based model representation. This work will make multi-material fabrication more accessible for educational and research robotics.  Current work is focused on applications of graded materials in the design of robust material transitions. The results will inform the design of stronger flexible joints for use in low-cost robotics applications.  More information is available on the project GitHub repository. (https://github.com/cdbrauer/VoxelFuse)</t>
+  </si>
+  <si>
+    <t>Currently, a lot of focus previously for laminate robots has been on design, but more complex applications require higher level design. The aim of my project is to demonstrate that laminate robots can be utilized for higher level design by designing a laminate biped with model-based controls that can balance while standing and walking. This project starts from the early
+prototyping design stage. Designs are created using python and Solidworks; PopupCAD is used to produce the DXF files needed for high speed laminate manufacturing. Through testing various design iterations, a design was reached with the ability to stand. The motors of this design were then modified to meet desired torque parameters. Testing has shown high torque is necessary to utilize robust control techniques, which will be used to balance the biped while it both stands and walks. Through python-based physics simulations utilizing Kane’s method, a model of the bipedal design can be created and linearized for controls applications. Since the system is fully controllable, LQR control techniques will be applied for balancing while standing and walking.  Eventually, different control systems can be design and implemented for various system applications.</t>
   </si>
 </sst>
 </file>
@@ -673,49 +674,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="99.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="99.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -724,12 +725,12 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -738,27 +739,27 @@
         <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -769,56 +770,56 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -829,19 +830,19 @@
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -852,44 +853,44 @@
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -898,36 +899,33 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -938,55 +936,46 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
@@ -995,35 +984,35 @@
         <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>28</v>
@@ -1032,41 +1021,41 @@
         <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="138" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -1075,24 +1064,27 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="153" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C21D9B5-DBBD-4962-A529-629D2BB0C697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C481116-35BE-4E9F-B061-E2B8BDFDE375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>The objective of this project is to investigate the relationship between deformation of a foldable antenna and effective wavelength. Understanding this association could allow for remote sensing of curvature in flexible robots. Alternatively, the correlation between deformation and effective wavelength could be leveraged to create tunable foldable antennas using closed-loop control techniques.</t>
   </si>
@@ -325,6 +325,9 @@
   <si>
     <t>Currently, a lot of focus previously for laminate robots has been on design, but more complex applications require higher level design. The aim of my project is to demonstrate that laminate robots can be utilized for higher level design by designing a laminate biped with model-based controls that can balance while standing and walking. This project starts from the early
 prototyping design stage. Designs are created using python and Solidworks; PopupCAD is used to produce the DXF files needed for high speed laminate manufacturing. Through testing various design iterations, a design was reached with the ability to stand. The motors of this design were then modified to meet desired torque parameters. Testing has shown high torque is necessary to utilize robust control techniques, which will be used to balance the biped while it both stands and walks. Through python-based physics simulations utilizing Kane’s method, a model of the bipedal design can be created and linearized for controls applications. Since the system is fully controllable, LQR control techniques will be applied for balancing while standing and walking.  Eventually, different control systems can be design and implemented for various system applications.</t>
+  </si>
+  <si>
+    <t>misc</t>
   </si>
 </sst>
 </file>
@@ -674,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -924,6 +927,9 @@
       <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="H12" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -941,6 +947,9 @@
       <c r="E13" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -955,6 +964,9 @@
       <c r="E14" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="H14" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -971,6 +983,9 @@
       </c>
       <c r="E15" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">

--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C481116-35BE-4E9F-B061-E2B8BDFDE375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CCBB9-B900-4B83-8331-7E45B44C7063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="33048" windowHeight="21648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t>The objective of this project is to investigate the relationship between deformation of a foldable antenna and effective wavelength. Understanding this association could allow for remote sensing of curvature in flexible robots. Alternatively, the correlation between deformation and effective wavelength could be leveraged to create tunable foldable antennas using closed-loop control techniques.</t>
   </si>
@@ -328,6 +328,21 @@
   </si>
   <si>
     <t>misc</t>
+  </si>
+  <si>
+    <t>Guston Lighthouse</t>
+  </si>
+  <si>
+    <t>/assets/images/research/jump-glider.png</t>
+  </si>
+  <si>
+    <t>This project was the result of a Barrett Honors thesis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This project investigates the impact curvature, buckling, and anisotropy play when used passively to enhance jumping capability. In this project we employ a curved structure to allow a rigid link to collapse preferentially in one direction when it encounters aerodynamic drag forces. A model was constructed in Python using the data gathered through the experiments and was tuned so that its outputs were as close as possible to the experimental results. As expected, increasing the wing diameter increased the total fall time, and increasing the payload mass decreased the total fall time. Orientation of the wings around the vertical axis of the glider relative to the direction of horizontal motion was also found to have an effect on the length of time between when the gliding platform was launched and when it made contact with the ground, with a configuration where the axis between the wings was parallel to the direction of motion granting added stability. </t>
+  </si>
+  <si>
+    <t>xtending the Jumping Range of a Small Robot via Collapsible Gliding Wings</t>
   </si>
 </sst>
 </file>
@@ -675,23 +690,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="99.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="36.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="99.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -717,7 +732,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -731,7 +746,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -745,7 +760,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -762,7 +777,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -782,7 +797,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -799,7 +814,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
@@ -822,7 +837,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -845,7 +860,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -868,7 +883,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -891,7 +906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -908,7 +923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -931,7 +946,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,7 +966,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -968,7 +983,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -988,7 +1003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1008,7 +1023,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1025,7 +1040,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1048,7 +1063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="138" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1068,7 +1083,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1085,7 +1100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="153" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -1100,6 +1115,29 @@
       </c>
       <c r="H21" s="2" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CCBB9-B900-4B83-8331-7E45B44C7063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A685D82-B751-448F-A021-DFCDD152AB76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="33048" windowHeight="21648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>The objective of this project is to investigate the relationship between deformation of a foldable antenna and effective wavelength. Understanding this association could allow for remote sensing of curvature in flexible robots. Alternatively, the correlation between deformation and effective wavelength could be leveraged to create tunable foldable antennas using closed-loop control techniques.</t>
   </si>
@@ -281,9 +281,6 @@
     <t>This project was the result of coursework and a Barrett Honors thesis.</t>
   </si>
   <si>
-    <t>This project is part of an ongoing FURI project</t>
-  </si>
-  <si>
     <t>This project is part of an ongoing Masters' thesis, and was previously the topic of a FURI project and a Barrett Honors thesis</t>
   </si>
   <si>
@@ -342,7 +339,16 @@
     <t xml:space="preserve">This project investigates the impact curvature, buckling, and anisotropy play when used passively to enhance jumping capability. In this project we employ a curved structure to allow a rigid link to collapse preferentially in one direction when it encounters aerodynamic drag forces. A model was constructed in Python using the data gathered through the experiments and was tuned so that its outputs were as close as possible to the experimental results. As expected, increasing the wing diameter increased the total fall time, and increasing the payload mass decreased the total fall time. Orientation of the wings around the vertical axis of the glider relative to the direction of horizontal motion was also found to have an effect on the length of time between when the gliding platform was launched and when it made contact with the ground, with a configuration where the axis between the wings was parallel to the direction of motion granting added stability. </t>
   </si>
   <si>
-    <t>xtending the Jumping Range of a Small Robot via Collapsible Gliding Wings</t>
+    <t>Extending the Jumping Range of a Small Robot via Collapsible Gliding Wings</t>
+  </si>
+  <si>
+    <t>This project was part of a Masters' thesis.</t>
+  </si>
+  <si>
+    <t>publish</t>
+  </si>
+  <si>
+    <t>This project was part of a Fall 2019 FURI project</t>
   </si>
 </sst>
 </file>
@@ -690,23 +696,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="99.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="99.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -729,10 +733,13 @@
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -743,10 +750,13 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -757,10 +767,13 @@
         <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -774,10 +787,13 @@
         <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -794,50 +810,59 @@
         <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -851,16 +876,19 @@
         <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -874,16 +902,19 @@
         <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -897,16 +928,19 @@
         <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -917,13 +951,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -934,19 +971,22 @@
         <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,27 +1003,33 @@
         <v>78</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -991,19 +1037,22 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1020,10 +1069,13 @@
         <v>69</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1034,13 +1086,19 @@
         <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1060,10 +1118,13 @@
         <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="138" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1080,10 +1141,13 @@
         <v>78</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1097,10 +1161,13 @@
         <v>78</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="153" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -1108,41 +1175,47 @@
         <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H23">
-    <sortCondition ref="H2:H23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I23">
+    <sortCondition ref="I2:I23"/>
     <sortCondition descending="1" ref="G2:G23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A685D82-B751-448F-A021-DFCDD152AB76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6ED30F-0AA6-44F4-AEE0-4A7C3ABA0588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
   <si>
     <t>The objective of this project is to investigate the relationship between deformation of a foldable antenna and effective wavelength. Understanding this association could allow for remote sensing of curvature in flexible robots. Alternatively, the correlation between deformation and effective wavelength could be leveraged to create tunable foldable antennas using closed-loop control techniques.</t>
   </si>
@@ -349,6 +349,19 @@
   </si>
   <si>
     <t>This project was part of a Fall 2019 FURI project</t>
+  </si>
+  <si>
+    <t>CAREER: Dynamic Modeling and Fabrication of Compliant Material Systems for On-Demand Specialist Robots</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>This work is supported by &lt;a href="https://www.nsf.gov/awardsearch/showAward?AWD_ID=1944789"&gt;NSF Award #1944789&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>This Faculty Early Career Development (CAREER) grant will make it possible to develop cost-effective, specialist robots that can be prototyped by a non-expert in a matter of hours. The goal of this project is to make robots more ubiquitous, accessible, and tunable for newcomers to robotics and for applications in industry, education, and academic research. Achieving this goal requires a shift towards more affordable materials, accessible fabrication strategies, and assistive design software that considers the particular dynamics of cost-efficient motors and materials, as well as the needs of specific applications. The results of this project will impact fields in which specialization is desirable, such as assistive robotics for the elderly, custom agricultural applications, and trash pickup in smart cities. The robots developed through this project will also serve as an affordable starting point for children to compete in after-school robotics competitions organized by local, youth-focused nonprofits. In addition, the models and templates developed for this project will be integrated into college-level robotics curricula, permitting students to venture deeper into advanced robotics topics earlier in their studies.
+The fundamental research contribution of this project lies within the consideration and integration of compliant material systems into a unified design framework that supports the specialization and optimization of dynamical robotic systems. The research plan involves developing reduced models for the nonlinear mechanics of material systems that permit more affordable robot designs, and considering that compliance in simulations to customize, model, and optimize their performance. This approach will investigate machine learning techniques to automatically tune parametric, template-driven designs in a way that balances competing performance trade-offs like speed, payload, and efficiency. The project's research objectives include the representation of compliance, the utilization and understanding of compliance, the optimization of compliant systems, and validation of the framework through prototyping, experimental validation, and exemplar use-cases. The generality of the approach will be demonstrated by modeling and optimizing several subsystems of a bipedal robot.</t>
   </si>
 </sst>
 </file>
@@ -696,21 +709,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="99.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="36.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="99.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.86328125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -739,7 +754,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -756,7 +771,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -773,7 +788,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -793,7 +808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -816,7 +831,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -836,7 +851,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -862,7 +877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -888,7 +903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -914,7 +929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -940,7 +955,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -960,7 +975,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -986,7 +1001,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1024,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="65.650000000000006" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>91</v>
       </c>
@@ -1029,7 +1044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1052,7 +1067,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1075,7 +1090,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1098,7 +1113,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1124,7 +1139,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1147,7 +1162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1167,7 +1182,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="153" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -1187,7 +1202,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>99</v>
       </c>
@@ -1211,6 +1226,26 @@
       </c>
       <c r="I22" s="2" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="262.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6ED30F-0AA6-44F4-AEE0-4A7C3ABA0588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D4AE63-B4B1-47C3-B8F8-5BB2E2599537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>The objective of this project is to investigate the relationship between deformation of a foldable antenna and effective wavelength. Understanding this association could allow for remote sensing of curvature in flexible robots. Alternatively, the correlation between deformation and effective wavelength could be leveraged to create tunable foldable antennas using closed-loop control techniques.</t>
   </si>
@@ -362,6 +362,19 @@
   <si>
     <t>This Faculty Early Career Development (CAREER) grant will make it possible to develop cost-effective, specialist robots that can be prototyped by a non-expert in a matter of hours. The goal of this project is to make robots more ubiquitous, accessible, and tunable for newcomers to robotics and for applications in industry, education, and academic research. Achieving this goal requires a shift towards more affordable materials, accessible fabrication strategies, and assistive design software that considers the particular dynamics of cost-efficient motors and materials, as well as the needs of specific applications. The results of this project will impact fields in which specialization is desirable, such as assistive robotics for the elderly, custom agricultural applications, and trash pickup in smart cities. The robots developed through this project will also serve as an affordable starting point for children to compete in after-school robotics competitions organized by local, youth-focused nonprofits. In addition, the models and templates developed for this project will be integrated into college-level robotics curricula, permitting students to venture deeper into advanced robotics topics earlier in their studies.
 The fundamental research contribution of this project lies within the consideration and integration of compliant material systems into a unified design framework that supports the specialization and optimization of dynamical robotic systems. The research plan involves developing reduced models for the nonlinear mechanics of material systems that permit more affordable robot designs, and considering that compliance in simulations to customize, model, and optimize their performance. This approach will investigate machine learning techniques to automatically tune parametric, template-driven designs in a way that balances competing performance trade-offs like speed, payload, and efficiency. The project's research objectives include the representation of compliance, the utilization and understanding of compliance, the optimization of compliant systems, and validation of the framework through prototyping, experimental validation, and exemplar use-cases. The generality of the approach will be demonstrated by modeling and optimizing several subsystems of a bipedal robot.</t>
+  </si>
+  <si>
+    <t>Wearable Hybrid Robotic Suit for Self-Actualization and Well-Being</t>
+  </si>
+  <si>
+    <t>/assets/images/research/exo-sites.png</t>
+  </si>
+  <si>
+    <t>This work is supported by the Kaiteki Institute</t>
+  </si>
+  <si>
+    <t>We propose a wearable hybrid robotic system that assists, enhances, and augments a person in their daily activities around the home and in the workplace in order to improve quality of life, increase productivity, and prolong independent living. Our approach focuses on three key research activities in order to achieve a wearable, hybrid system that works with its user to provide (a) alternate load pathways, (b) reconfigure itself for different activities, and (c) learn alongside its wearer to improve usability.  First, we propose a biomechanics-based investigation of routine activities often seen in the workplace and in daily living to identify key opportunities for intervention. Second, we propose a low-cost and highly customizable design approach in which arrays of passive devices may be engaged or disengaged to provide dynamic and low-power support to the user as they transition through various activities. Finally, we propose to pair this wearable device with a machine learning approach called “mutual adaptation” in order to learn about -- and reciprocally guide and train -- the robotic device for more effective use and symbiosis with the wearer.
+&lt;a href="{{site.base_path}}/kaiteki"&gt;Project Page&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -709,23 +722,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="99.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.86328125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="36.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="99.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -754,7 +767,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -771,7 +784,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -788,7 +801,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="65.650000000000006" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -808,7 +821,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -831,7 +844,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -851,7 +864,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -877,7 +890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -903,7 +916,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -929,7 +942,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -955,7 +968,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -975,7 +988,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="65.650000000000006" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +1014,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="104" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="65.650000000000006" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>91</v>
       </c>
@@ -1044,7 +1057,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="104" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1067,7 +1080,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="117" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1090,7 +1103,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="143" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1113,7 +1126,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1139,7 +1152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="130" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1162,7 +1175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1182,7 +1195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="130" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -1202,7 +1215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="104" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>99</v>
       </c>
@@ -1228,7 +1241,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="262.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="260" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>103</v>
       </c>
@@ -1246,6 +1259,29 @@
       </c>
       <c r="I23" s="2" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="156" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D4AE63-B4B1-47C3-B8F8-5BB2E2599537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{04315175-6D78-4B9E-B460-38F1CBC45DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="1650" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="research-projects" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
   <si>
     <t>The objective of this project is to investigate the relationship between deformation of a foldable antenna and effective wavelength. Understanding this association could allow for remote sensing of curvature in flexible robots. Alternatively, the correlation between deformation and effective wavelength could be leveraged to create tunable foldable antennas using closed-loop control techniques.</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>Foldable Robotic Elephant Trunk</t>
-  </si>
-  <si>
-    <t>foldable</t>
   </si>
   <si>
     <t>fish</t>
@@ -373,8 +370,13 @@
     <t>This work is supported by the Kaiteki Institute</t>
   </si>
   <si>
-    <t>We propose a wearable hybrid robotic system that assists, enhances, and augments a person in their daily activities around the home and in the workplace in order to improve quality of life, increase productivity, and prolong independent living. Our approach focuses on three key research activities in order to achieve a wearable, hybrid system that works with its user to provide (a) alternate load pathways, (b) reconfigure itself for different activities, and (c) learn alongside its wearer to improve usability.  First, we propose a biomechanics-based investigation of routine activities often seen in the workplace and in daily living to identify key opportunities for intervention. Second, we propose a low-cost and highly customizable design approach in which arrays of passive devices may be engaged or disengaged to provide dynamic and low-power support to the user as they transition through various activities. Finally, we propose to pair this wearable device with a machine learning approach called “mutual adaptation” in order to learn about -- and reciprocally guide and train -- the robotic device for more effective use and symbiosis with the wearer.
-&lt;a href="{{site.base_path}}/kaiteki"&gt;Project Page&lt;/a&gt;</t>
+    <t>/assets/images/research/boring.png</t>
+  </si>
+  <si>
+    <t>This project is part of an ongoing Masters' project.</t>
+  </si>
+  <si>
+    <t>We propose a wearable hybrid robotic system that assists, enhances, and augments a person in their daily activities around the home and in the workplace in order to improve quality of life, increase productivity, and prolong independent living. Our approach focuses on three key research activities in order to achieve a wearable, hybrid system that works with its user to provide (a) alternate load pathways, (b) reconfigure itself for different activities, and (c) learn alongside its wearer to improve usability.  First, we propose a biomechanics-based investigation of routine activities often seen in the workplace and in daily living to identify key opportunities for intervention. Second, we propose a low-cost and highly customizable design approach in which arrays of passive devices may be engaged or disengaged to provide dynamic and low-power support to the user as they transition through various activities. Finally, we propose to pair this wearable device with a machine learning approach called “mutual adaptation” in order to learn about -- and reciprocally guide and train -- the robotic device for more effective use and symbiosis with the wearer.</t>
   </si>
 </sst>
 </file>
@@ -724,21 +726,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="99.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="99.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -761,13 +763,13 @@
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -777,14 +779,17 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -794,34 +799,37 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -834,63 +842,57 @@
       <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="52" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -904,19 +906,16 @@
         <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -930,19 +929,16 @@
         <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -956,19 +952,16 @@
         <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -979,16 +972,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -999,22 +989,19 @@
         <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="104" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,36 +1015,39 @@
         <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="104" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1065,22 +1055,22 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="117" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1094,16 +1084,16 @@
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="143" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1111,22 +1101,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1140,19 +1127,16 @@
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="130" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1160,22 +1144,22 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1186,102 +1170,99 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="153" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="130" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="280.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="104" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="260" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="156" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{04315175-6D78-4B9E-B460-38F1CBC45DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FF6A90-479D-43DC-A616-4A64728264D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1650" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="research-projects" sheetId="1" r:id="rId1"/>
@@ -357,10 +357,6 @@
     <t>This work is supported by &lt;a href="https://www.nsf.gov/awardsearch/showAward?AWD_ID=1944789"&gt;NSF Award #1944789&lt;/a&gt;</t>
   </si>
   <si>
-    <t>This Faculty Early Career Development (CAREER) grant will make it possible to develop cost-effective, specialist robots that can be prototyped by a non-expert in a matter of hours. The goal of this project is to make robots more ubiquitous, accessible, and tunable for newcomers to robotics and for applications in industry, education, and academic research. Achieving this goal requires a shift towards more affordable materials, accessible fabrication strategies, and assistive design software that considers the particular dynamics of cost-efficient motors and materials, as well as the needs of specific applications. The results of this project will impact fields in which specialization is desirable, such as assistive robotics for the elderly, custom agricultural applications, and trash pickup in smart cities. The robots developed through this project will also serve as an affordable starting point for children to compete in after-school robotics competitions organized by local, youth-focused nonprofits. In addition, the models and templates developed for this project will be integrated into college-level robotics curricula, permitting students to venture deeper into advanced robotics topics earlier in their studies.
-The fundamental research contribution of this project lies within the consideration and integration of compliant material systems into a unified design framework that supports the specialization and optimization of dynamical robotic systems. The research plan involves developing reduced models for the nonlinear mechanics of material systems that permit more affordable robot designs, and considering that compliance in simulations to customize, model, and optimize their performance. This approach will investigate machine learning techniques to automatically tune parametric, template-driven designs in a way that balances competing performance trade-offs like speed, payload, and efficiency. The project's research objectives include the representation of compliance, the utilization and understanding of compliance, the optimization of compliant systems, and validation of the framework through prototyping, experimental validation, and exemplar use-cases. The generality of the approach will be demonstrated by modeling and optimizing several subsystems of a bipedal robot.</t>
-  </si>
-  <si>
     <t>Wearable Hybrid Robotic Suit for Self-Actualization and Well-Being</t>
   </si>
   <si>
@@ -377,6 +373,10 @@
   </si>
   <si>
     <t>We propose a wearable hybrid robotic system that assists, enhances, and augments a person in their daily activities around the home and in the workplace in order to improve quality of life, increase productivity, and prolong independent living. Our approach focuses on three key research activities in order to achieve a wearable, hybrid system that works with its user to provide (a) alternate load pathways, (b) reconfigure itself for different activities, and (c) learn alongside its wearer to improve usability.  First, we propose a biomechanics-based investigation of routine activities often seen in the workplace and in daily living to identify key opportunities for intervention. Second, we propose a low-cost and highly customizable design approach in which arrays of passive devices may be engaged or disengaged to provide dynamic and low-power support to the user as they transition through various activities. Finally, we propose to pair this wearable device with a machine learning approach called “mutual adaptation” in order to learn about -- and reciprocally guide and train -- the robotic device for more effective use and symbiosis with the wearer.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;This Faculty Early Career Development (CAREER) grant will make it possible to develop cost-effective, specialist robots that can be prototyped by a non-expert in a matter of hours. The goal of this project is to make robots more ubiquitous, accessible, and tunable for newcomers to robotics and for applications in industry, education, and academic research. Achieving this goal requires a shift towards more affordable materials, accessible fabrication strategies, and assistive design software that considers the particular dynamics of cost-efficient motors and materials, as well as the needs of specific applications. The results of this project will impact fields in which specialization is desirable, such as assistive robotics for the elderly, custom agricultural applications, and trash pickup in smart cities. The robots developed through this project will also serve as an affordable starting point for children to compete in after-school robotics competitions organized by local, youth-focused nonprofits. In addition, the models and templates developed for this project will be integrated into college-level robotics curricula, permitting students to venture deeper into advanced robotics topics earlier in their studies.&lt;/p&gt;
+&lt;p&gt;The fundamental research contribution of this project lies within the consideration and integration of compliant material systems into a unified design framework that supports the specialization and optimization of dynamical robotic systems. The research plan involves developing reduced models for the nonlinear mechanics of material systems that permit more affordable robot designs, and considering that compliance in simulations to customize, model, and optimize their performance. This approach will investigate machine learning techniques to automatically tune parametric, template-driven designs in a way that balances competing performance trade-offs like speed, payload, and efficiency. The project's research objectives include the representation of compliance, the utilization and understanding of compliance, the optimization of compliant systems, and validation of the framework through prototyping, experimental validation, and exemplar use-cases. The generality of the approach will be demonstrated by modeling and optimizing several subsystems of a bipedal robot.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -726,21 +726,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="99.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="36.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="99.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -769,7 +769,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -789,7 +789,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -809,7 +809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -829,7 +829,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -849,7 +849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -869,7 +869,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -892,7 +892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -915,7 +915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -961,7 +961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -978,7 +978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="104" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>90</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>72</v>
@@ -1047,7 +1047,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="104" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="117" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="143" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="130" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="153" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="130" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="104" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="247" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>102</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>104</v>
@@ -1242,21 +1242,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="130" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>16</v>

--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FF6A90-479D-43DC-A616-4A64728264D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435EB19B-C261-416E-9CD1-6DA18FB170D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15090" yWindow="12465" windowWidth="21600" windowHeight="11370" tabRatio="318" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="research-projects" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="113">
   <si>
     <t>The objective of this project is to investigate the relationship between deformation of a foldable antenna and effective wavelength. Understanding this association could allow for remote sensing of curvature in flexible robots. Alternatively, the correlation between deformation and effective wavelength could be leveraged to create tunable foldable antennas using closed-loop control techniques.</t>
   </si>
@@ -377,6 +377,9 @@
   <si>
     <t>&lt;p&gt;This Faculty Early Career Development (CAREER) grant will make it possible to develop cost-effective, specialist robots that can be prototyped by a non-expert in a matter of hours. The goal of this project is to make robots more ubiquitous, accessible, and tunable for newcomers to robotics and for applications in industry, education, and academic research. Achieving this goal requires a shift towards more affordable materials, accessible fabrication strategies, and assistive design software that considers the particular dynamics of cost-efficient motors and materials, as well as the needs of specific applications. The results of this project will impact fields in which specialization is desirable, such as assistive robotics for the elderly, custom agricultural applications, and trash pickup in smart cities. The robots developed through this project will also serve as an affordable starting point for children to compete in after-school robotics competitions organized by local, youth-focused nonprofits. In addition, the models and templates developed for this project will be integrated into college-level robotics curricula, permitting students to venture deeper into advanced robotics topics earlier in their studies.&lt;/p&gt;
 &lt;p&gt;The fundamental research contribution of this project lies within the consideration and integration of compliant material systems into a unified design framework that supports the specialization and optimization of dynamical robotic systems. The research plan involves developing reduced models for the nonlinear mechanics of material systems that permit more affordable robot designs, and considering that compliance in simulations to customize, model, and optimize their performance. This approach will investigate machine learning techniques to automatically tune parametric, template-driven designs in a way that balances competing performance trade-offs like speed, payload, and efficiency. The project's research objectives include the representation of compliance, the utilization and understanding of compliance, the optimization of compliant systems, and validation of the framework through prototyping, experimental validation, and exemplar use-cases. The generality of the approach will be demonstrated by modeling and optimizing several subsystems of a bipedal robot.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>paper_keys</t>
   </si>
 </sst>
 </file>
@@ -724,23 +727,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="99.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="27.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="I1" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -789,7 +796,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -809,7 +816,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -829,7 +836,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -849,7 +856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -869,7 +876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -892,7 +899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -915,7 +922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -938,7 +945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -961,7 +968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -978,7 +985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +1008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="104" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1031,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>90</v>
       </c>
@@ -1047,7 +1054,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="104" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1070,7 +1077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="117" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1093,7 +1100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="143" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1113,7 +1120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1136,7 +1143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="130" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1159,7 +1166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="91" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1179,7 +1186,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="130" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -1199,7 +1206,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="104" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
@@ -1222,7 +1229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="247" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>102</v>
       </c>
@@ -1242,7 +1249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="130" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>105</v>
       </c>

--- a/_data/research-projects.xlsx
+++ b/_data/research-projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435EB19B-C261-416E-9CD1-6DA18FB170D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31E2D52-3D2A-493A-A4EA-CC8F0C1E50D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15090" yWindow="12465" windowWidth="21600" windowHeight="11370" tabRatio="318" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" tabRatio="318" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="research-projects" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
   <si>
     <t>The objective of this project is to investigate the relationship between deformation of a foldable antenna and effective wavelength. Understanding this association could allow for remote sensing of curvature in flexible robots. Alternatively, the correlation between deformation and effective wavelength could be leveraged to create tunable foldable antennas using closed-loop control techniques.</t>
   </si>
@@ -351,9 +351,6 @@
     <t>CAREER: Dynamic Modeling and Fabrication of Compliant Material Systems for On-Demand Specialist Robots</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>This work is supported by &lt;a href="https://www.nsf.gov/awardsearch/showAward?AWD_ID=1944789"&gt;NSF Award #1944789&lt;/a&gt;</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
   </si>
   <si>
     <t>This project is part of an ongoing Masters' project.</t>
-  </si>
-  <si>
-    <t>We propose a wearable hybrid robotic system that assists, enhances, and augments a person in their daily activities around the home and in the workplace in order to improve quality of life, increase productivity, and prolong independent living. Our approach focuses on three key research activities in order to achieve a wearable, hybrid system that works with its user to provide (a) alternate load pathways, (b) reconfigure itself for different activities, and (c) learn alongside its wearer to improve usability.  First, we propose a biomechanics-based investigation of routine activities often seen in the workplace and in daily living to identify key opportunities for intervention. Second, we propose a low-cost and highly customizable design approach in which arrays of passive devices may be engaged or disengaged to provide dynamic and low-power support to the user as they transition through various activities. Finally, we propose to pair this wearable device with a machine learning approach called “mutual adaptation” in order to learn about -- and reciprocally guide and train -- the robotic device for more effective use and symbiosis with the wearer.</t>
   </si>
   <si>
     <t>&lt;p&gt;This Faculty Early Career Development (CAREER) grant will make it possible to develop cost-effective, specialist robots that can be prototyped by a non-expert in a matter of hours. The goal of this project is to make robots more ubiquitous, accessible, and tunable for newcomers to robotics and for applications in industry, education, and academic research. Achieving this goal requires a shift towards more affordable materials, accessible fabrication strategies, and assistive design software that considers the particular dynamics of cost-efficient motors and materials, as well as the needs of specific applications. The results of this project will impact fields in which specialization is desirable, such as assistive robotics for the elderly, custom agricultural applications, and trash pickup in smart cities. The robots developed through this project will also serve as an affordable starting point for children to compete in after-school robotics competitions organized by local, youth-focused nonprofits. In addition, the models and templates developed for this project will be integrated into college-level robotics curricula, permitting students to venture deeper into advanced robotics topics earlier in their studies.&lt;/p&gt;
@@ -380,6 +374,15 @@
   </si>
   <si>
     <t>paper_keys</t>
+  </si>
+  <si>
+    <t>Chien-Wen Pan, Dongting Li</t>
+  </si>
+  <si>
+    <t>This project proposes a wearable hybrid robotic system to address mobility issues that occur in aging populations.  The goal of this system will be to support and guide the wearer through every day tasks, improving stability to reduce the risk of falls and subsequent injury.  Our approach takes a three-thrust approach: 1) understanding through human biomechanics studies where and how interventions on the human body can have the highest impact, 2) the design of a suit that reconfigures itself on demand to provide external load pathways to the ground while staying transparent to the wearer in other use-cases, and 3) decision on how to reconfigure and use the suit informed by predictive biomechanics and sensor fusion approaches.</t>
+  </si>
+  <si>
+    <t>Fuchen Chen, Cole Brauer</t>
   </si>
 </sst>
 </file>
@@ -729,22 +732,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="27.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -773,10 +776,10 @@
         <v>65</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -787,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -796,7 +799,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -816,7 +819,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -836,7 +839,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -856,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -876,7 +879,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -899,7 +902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -922,7 +925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -945,7 +948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -968,7 +971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -985,7 +988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>90</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>72</v>
@@ -1054,7 +1057,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
@@ -1229,18 +1232,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>16</v>
@@ -1249,21 +1252,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>16</v>
